--- a/Template/Character.xlsx
+++ b/Template/Character.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trim0\Documents\source\ProjectBattleArena\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D895BB5F-23C9-48C0-B6B1-23729E154925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5975A596-EAD6-44F9-A8C5-EB108ECA2FEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37935" yWindow="5160" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="30">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,10 +46,6 @@
     <t>Int32</t>
   </si>
   <si>
-    <t>StringId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Stat</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -118,6 +114,30 @@
   </si>
   <si>
     <t>Destruction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BaseAttackSkill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RefTemplate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skills</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">RefTemplateField </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BasicAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BasicRangedAttack</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -446,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="N1" sqref="N1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -460,11 +480,12 @@
     <col min="6" max="6" width="11.25" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="8.75" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -476,50 +497,53 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1000</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>1000</v>
@@ -551,13 +575,16 @@
       <c r="L3">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4">
         <v>800</v>
@@ -588,6 +615,9 @@
       </c>
       <c r="L4">
         <v>100</v>
+      </c>
+      <c r="M4" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -602,10 +632,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2181B41-2634-4EEE-8310-849A71C5CE68}">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="Q1" sqref="Q1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -616,9 +646,12 @@
     <col min="8" max="8" width="8.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.75" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.58203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -629,40 +662,46 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+      <c r="O1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -676,202 +715,222 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
       <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" t="s">
         <v>23</v>
       </c>
-      <c r="F4" t="s">
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="G4" t="s">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" t="s">
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="b">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
         <v>20</v>
       </c>
-      <c r="J4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
         <v>21</v>
       </c>
-      <c r="M4" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="b">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="b">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="b">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="b">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="b">
-        <v>1</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="b">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="O15" t="s">
+        <v>26</v>
+      </c>
+      <c r="P15" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Template/Character.xlsx
+++ b/Template/Character.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trim0\Documents\source\ProjectBattleArena\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5975A596-EAD6-44F9-A8C5-EB108ECA2FEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642767C8-48AF-44B1-A717-87EE56F2A6BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="33">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -138,6 +138,18 @@
   </si>
   <si>
     <t>BasicRangedAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JobType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attacker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -466,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:P1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -483,7 +495,7 @@
     <col min="13" max="13" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
@@ -497,7 +509,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -537,8 +549,11 @@
       <c r="M2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1000</v>
       </c>
@@ -578,8 +593,11 @@
       <c r="M3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="N3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1001</v>
       </c>
@@ -618,6 +636,9 @@
       </c>
       <c r="M4" t="s">
         <v>29</v>
+      </c>
+      <c r="N4" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -632,10 +653,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2181B41-2634-4EEE-8310-849A71C5CE68}">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:R1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -933,6 +954,20 @@
         <v>0</v>
       </c>
     </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Template/Character.xlsx
+++ b/Template/Character.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trim0\Documents\source\ProjectBattleArena\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642767C8-48AF-44B1-A717-87EE56F2A6BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E2FB73-8606-4D49-9F5D-1EC2AE9F216F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="36">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -151,6 +151,15 @@
   <si>
     <t>enum</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackType</t>
+  </si>
+  <si>
+    <t>Melee</t>
+  </si>
+  <si>
+    <t>LongRange</t>
   </si>
 </sst>
 </file>
@@ -478,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -493,9 +502,10 @@
     <col min="7" max="8" width="8.75" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
@@ -509,7 +519,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -552,8 +562,11 @@
       <c r="N2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1000</v>
       </c>
@@ -596,8 +609,11 @@
       <c r="N3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1001</v>
       </c>
@@ -639,6 +655,9 @@
       </c>
       <c r="N4" t="s">
         <v>31</v>
+      </c>
+      <c r="O4" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -653,10 +672,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2181B41-2634-4EEE-8310-849A71C5CE68}">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -968,6 +987,20 @@
         <v>32</v>
       </c>
     </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Template/Character.xlsx
+++ b/Template/Character.xlsx
@@ -8,18 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trim0\Documents\source\ProjectBattleArena\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E2FB73-8606-4D49-9F5D-1EC2AE9F216F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA12C8CE-DA99-4B4E-B8F8-A076617DA290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2420" yWindow="6500" windowWidth="19200" windowHeight="11270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Define" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -490,7 +501,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -577,10 +588,10 @@
         <v>1000</v>
       </c>
       <c r="D3">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E3">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="F3">
         <v>140</v>
@@ -598,7 +609,7 @@
         <v>260</v>
       </c>
       <c r="K3">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="L3">
         <v>100</v>
@@ -627,7 +638,7 @@
         <v>140</v>
       </c>
       <c r="E4">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F4">
         <v>180</v>
@@ -645,7 +656,7 @@
         <v>260</v>
       </c>
       <c r="K4">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="L4">
         <v>100</v>

--- a/Template/Character.xlsx
+++ b/Template/Character.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trim0\Documents\source\ProjectBattleArena\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA12C8CE-DA99-4B4E-B8F8-A076617DA290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63422730-62F8-4F58-927D-7E6368CC41A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2420" yWindow="6500" windowWidth="19200" windowHeight="11270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -501,7 +501,7 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>

--- a/Template/Character.xlsx
+++ b/Template/Character.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trim0\Documents\source\ProjectBattleArena\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63422730-62F8-4F58-927D-7E6368CC41A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6969CB9-71E2-4D11-9A2C-1045CB6047C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="47685" yWindow="5085" windowWidth="23040" windowHeight="13650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -501,22 +501,22 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="10.58203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.69921875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.296875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
@@ -530,7 +530,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -577,7 +577,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1000</v>
       </c>
@@ -624,7 +624,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1001</v>
       </c>
@@ -689,20 +689,20 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.58203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
-    <col min="8" max="8" width="8.58203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.58203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.296875" customWidth="1"/>
+    <col min="8" max="8" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.69921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.296875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -752,7 +752,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -766,7 +766,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -780,7 +780,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -824,7 +824,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -838,7 +838,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -852,7 +852,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -866,7 +866,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -880,7 +880,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -894,7 +894,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -908,7 +908,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -922,7 +922,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -936,7 +936,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -950,7 +950,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -964,7 +964,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -998,7 +998,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>33</v>
       </c>

--- a/Template/Character.xlsx
+++ b/Template/Character.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trim0\Documents\source\ProjectBattleArena\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\ProjectBattleArena\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6969CB9-71E2-4D11-9A2C-1045CB6047C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7EC34A5-689B-4650-9E0F-82EBC2CE3963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47685" yWindow="5085" windowWidth="23040" windowHeight="13650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -501,22 +501,22 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.19921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8.69921875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.25" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
@@ -530,7 +530,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -577,7 +577,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1000</v>
       </c>
@@ -624,7 +624,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1001</v>
       </c>
@@ -689,20 +689,20 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.296875" customWidth="1"/>
-    <col min="8" max="8" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.69921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.25" customWidth="1"/>
+    <col min="8" max="8" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.25" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -752,7 +752,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -766,7 +766,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -780,7 +780,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -824,7 +824,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -838,7 +838,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -852,7 +852,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -866,7 +866,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -880,7 +880,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -894,7 +894,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -908,7 +908,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -922,7 +922,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -936,7 +936,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -950,7 +950,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -964,7 +964,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -998,7 +998,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>33</v>
       </c>
